--- a/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P2_2025.xlsx
@@ -10223,12 +10223,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>3103040004</t>
+          <t>3102100002</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>SUSTRATO PLANTAS CARNIVORAS Y ACIDOFILAS 2.5L</t>
+          <t>SUSTRATO SEMILLERO 2,5L</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -10271,7 +10271,7 @@
         <v>-5</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>0</v>
@@ -10306,12 +10306,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>3102100002</t>
+          <t>3103040004</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>SUSTRATO SEMILLERO 2,5L</t>
+          <t>SUSTRATO PLANTAS CARNIVORAS Y ACIDOFILAS 2.5L</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -10354,7 +10354,7 @@
         <v>-5</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>0</v>
@@ -10828,17 +10828,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>3101010008</t>
+          <t>3203050026</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>SUSTRATO UNIVERSAL ECOLOGICO SIN TURBA</t>
+          <t>SACO MARMOLINA AMARILLO 20KG</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>10L</t>
+          <t>9I12</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -10848,25 +10848,25 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>6.58</v>
+        <v>5.99</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>2.96</v>
+        <v>2.48</v>
       </c>
       <c r="K45" s="4" t="n">
         <v>0</v>
@@ -10875,16 +10875,16 @@
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N45" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q45" s="4" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
@@ -10919,17 +10919,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>3203050026</t>
+          <t>3101010008</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA AMARILLO 20KG</t>
+          <t>SUSTRATO UNIVERSAL ECOLOGICO SIN TURBA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>9I12</t>
+          <t>10L</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -10939,43 +10939,43 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H46" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" s="4" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="J46" s="4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K46" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I46" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="J46" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="K46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N46" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v>0</v>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -11173,17 +11173,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3203050002</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG (NO VENTA)</t>
+          <t>BIG BAG CANTO RODADO BLANCO 500KG</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>12I18</t>
+          <t>20I40</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -11226,16 +11226,16 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>13.33</v>
+        <v>55.56</v>
       </c>
       <c r="S2" s="5" t="n">
         <v>0</v>
@@ -11252,7 +11252,7 @@
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 19/05/2025</t>
+          <t>Compra 11/04/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -11264,24 +11264,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3202030010</t>
+          <t>3102110006</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG RECEBO CESPED 650L (NO VENTA)</t>
+          <t>BIG BAG TIERRA ENRIQUECIDA 500L (NO VENTA)</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -11309,19 +11309,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>102.22</v>
+        <v>13.33</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T3" s="9" t="inlineStr">
         <is>
@@ -11330,12 +11330,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 19/05/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -11347,24 +11347,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3102110006</t>
+          <t>3201020001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG TIERRA ENRIQUECIDA 650L (NO VENTA)</t>
+          <t>BIG BAG MANTILLO 500L (NO VENTA)</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -11383,7 +11383,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -11392,19 +11392,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>102.22</v>
+        <v>13.33</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9" t="inlineStr">
         <is>
@@ -11413,12 +11413,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 144.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 19/05/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -11430,17 +11430,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>3203050005</t>
+          <t>3102110001</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG GRAVA VOLCANICA MARRON 500L (NO VENTA)</t>
+          <t>BIG BAG JABRE</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>5I10</t>
+          <t>1M3</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -11450,12 +11450,12 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -11474,7 +11474,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -11483,19 +11483,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>13.33</v>
+        <v>102.22</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T5" s="9" t="inlineStr">
         <is>
@@ -11504,12 +11504,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 458.74€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 19/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -11521,24 +11521,24 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>3102110006</t>
+          <t>3202030010</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG TIERRA ENRIQUECIDA 500L (NO VENTA)</t>
+          <t>BIG BAG RECEBO CESPED 650L (NO VENTA)</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -11566,19 +11566,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>13.33</v>
+        <v>102.22</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T6" s="9" t="inlineStr">
         <is>
@@ -11587,12 +11587,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 19/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -11687,17 +11687,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>3203050002</t>
+          <t>3203050005</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG CANTO RODADO BLANCO 500KG</t>
+          <t>BIG BAG GRAVA VOLCANICA MARRON 500L (NO VENTA)</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>20I40</t>
+          <t>5I10</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -11731,7 +11731,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -11740,16 +11740,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>55.56</v>
+        <v>13.33</v>
       </c>
       <c r="S8" s="5" t="n">
         <v>0</v>
@@ -11766,7 +11766,7 @@
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 11/04/2025</t>
+          <t>Compra 19/05/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -11778,17 +11778,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>3102110001</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG JABRE</t>
+          <t>BIG BAG MARMOLINA BLANCA 500KG (NO VENTA)</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>1M3</t>
+          <t>12I18</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -11798,12 +11798,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -11822,7 +11822,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -11831,19 +11831,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>102.22</v>
+        <v>13.33</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T9" s="9" t="inlineStr">
         <is>
@@ -11852,12 +11852,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 458.74€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 19/05/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -11869,24 +11869,24 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3201020001</t>
+          <t>3102110006</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MANTILLO 500L (NO VENTA)</t>
+          <t>BIG BAG TIERRA ENRIQUECIDA 650L (NO VENTA)</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -11905,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -11914,19 +11914,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>13.33</v>
+        <v>102.22</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T10" s="9" t="inlineStr">
         <is>
@@ -11935,12 +11935,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 144.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 19/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P2_2025.xlsx
@@ -11173,24 +11173,16 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>3203050002</t>
+          <t>3201020001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG CANTO RODADO BLANCO 500KG</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>20I40</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG MANTILLO 500L (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -11217,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -11226,16 +11218,16 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>55.56</v>
+        <v>13.33</v>
       </c>
       <c r="S2" s="5" t="n">
         <v>0</v>
@@ -11252,7 +11244,7 @@
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 11/04/2025</t>
+          <t>Compra 19/05/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -11264,24 +11256,32 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3102110006</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG TIERRA ENRIQUECIDA 500L (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
+          <t>BIG BAG MARMOLINA BLANCA 500KG (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>12I18</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
@@ -11347,24 +11347,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3201020001</t>
+          <t>3102110006</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MANTILLO 500L (NO VENTA)</t>
+          <t>BIG BAG TIERRA ENRIQUECIDA 650L (NO VENTA)</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -11383,7 +11383,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -11392,19 +11392,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>13.33</v>
+        <v>102.22</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T4" s="9" t="inlineStr">
         <is>
@@ -11413,12 +11413,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 144.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 19/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -11430,17 +11430,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>3102110001</t>
+          <t>3203050005</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG JABRE</t>
+          <t>BIG BAG GRAVA VOLCANICA MARRON 500L (NO VENTA)</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>1M3</t>
+          <t>5I10</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -11450,12 +11450,12 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -11474,7 +11474,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -11483,19 +11483,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>102.22</v>
+        <v>13.33</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T5" s="9" t="inlineStr">
         <is>
@@ -11504,12 +11504,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 458.74€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 19/05/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -11521,24 +11521,24 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>3202030010</t>
+          <t>3102110006</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG RECEBO CESPED 650L (NO VENTA)</t>
+          <t>BIG BAG TIERRA ENRIQUECIDA 500L (NO VENTA)</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -11566,19 +11566,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>102.22</v>
+        <v>13.33</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T6" s="9" t="inlineStr">
         <is>
@@ -11587,12 +11587,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 19/05/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -11604,24 +11604,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>3101010010</t>
+          <t>3202030010</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>COMPO BIO SUBSTRATO AQUA DEPOT</t>
+          <t>BIG BAG RECEBO CESPED 650L (NO VENTA)</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -11640,7 +11640,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -11649,7 +11649,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
@@ -11670,7 +11670,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 244.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -11687,17 +11687,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>3203050005</t>
+          <t>3102110001</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG GRAVA VOLCANICA MARRON 500L (NO VENTA)</t>
+          <t>BIG BAG JABRE</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>5I10</t>
+          <t>1M3</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -11707,12 +11707,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -11731,7 +11731,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -11740,19 +11740,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>13.33</v>
+        <v>102.22</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T8" s="9" t="inlineStr">
         <is>
@@ -11761,12 +11761,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 458.74€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 19/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -11778,32 +11778,24 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3101010010</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>12I18</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>COMPO BIO SUBSTRATO AQUA DEPOT</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -11822,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -11831,19 +11823,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>13.33</v>
+        <v>102.22</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T9" s="9" t="inlineStr">
         <is>
@@ -11852,12 +11844,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 244.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 19/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -11869,24 +11861,32 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3102110006</t>
+          <t>3203050002</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG TIERRA ENRIQUECIDA 650L (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr"/>
-      <c r="D10" s="3" t="inlineStr"/>
+          <t>BIG BAG CANTO RODADO BLANCO 500KG</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>20I40</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -11905,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -11914,19 +11914,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>102.22</v>
+        <v>55.56</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T10" s="9" t="inlineStr">
         <is>
@@ -11935,12 +11935,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 144.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 11/04/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P2_2025.xlsx
@@ -11256,32 +11256,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3101010010</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>12I18</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>COMPO BIO SUBSTRATO AQUA DEPOT</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -11300,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -11309,19 +11301,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>13.33</v>
+        <v>102.22</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T3" s="9" t="inlineStr">
         <is>
@@ -11330,12 +11322,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 244.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 19/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -11430,17 +11422,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>3203050005</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG GRAVA VOLCANICA MARRON 500L (NO VENTA)</t>
+          <t>BIG BAG MARMOLINA BLANCA 500KG (NO VENTA)</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>5I10</t>
+          <t>12I18</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -11521,24 +11513,24 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>3102110006</t>
+          <t>3202030010</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG TIERRA ENRIQUECIDA 500L (NO VENTA)</t>
+          <t>BIG BAG RECEBO CESPED 650L (NO VENTA)</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -11557,7 +11549,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -11566,19 +11558,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>13.33</v>
+        <v>102.22</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T6" s="9" t="inlineStr">
         <is>
@@ -11587,12 +11579,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 19/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -11604,24 +11596,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>3202030010</t>
+          <t>3102110006</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG RECEBO CESPED 650L (NO VENTA)</t>
+          <t>BIG BAG TIERRA ENRIQUECIDA 500L (NO VENTA)</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -11640,7 +11632,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -11649,19 +11641,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>102.22</v>
+        <v>13.33</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T7" s="9" t="inlineStr">
         <is>
@@ -11670,12 +11662,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 19/05/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -11687,17 +11679,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>3102110001</t>
+          <t>3203050002</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG JABRE</t>
+          <t>BIG BAG CANTO RODADO BLANCO 500KG</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>1M3</t>
+          <t>20I40</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -11707,12 +11699,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -11731,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -11740,19 +11732,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>102.22</v>
+        <v>55.56</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T8" s="9" t="inlineStr">
         <is>
@@ -11761,12 +11753,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 458.74€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 11/04/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -11778,24 +11770,32 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>3101010010</t>
+          <t>3203050005</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>COMPO BIO SUBSTRATO AQUA DEPOT</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr"/>
-      <c r="D9" s="3" t="inlineStr"/>
+          <t>BIG BAG GRAVA VOLCANICA MARRON 500L (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>5I10</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -11814,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -11823,19 +11823,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>102.22</v>
+        <v>13.33</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T9" s="9" t="inlineStr">
         <is>
@@ -11844,12 +11844,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 244.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 19/05/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -11861,17 +11861,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3203050002</t>
+          <t>3102110001</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG CANTO RODADO BLANCO 500KG</t>
+          <t>BIG BAG JABRE</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>20I40</t>
+          <t>1M3</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -11881,12 +11881,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -11905,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -11914,19 +11914,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>55.56</v>
+        <v>102.22</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T10" s="9" t="inlineStr">
         <is>
@@ -11935,12 +11935,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 458.74€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 11/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P2_2025.xlsx
@@ -11173,24 +11173,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>3201020001</t>
+          <t>3102110006</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MANTILLO 500L (NO VENTA)</t>
+          <t>BIG BAG TIERRA ENRIQUECIDA 650L (NO VENTA)</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -11209,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -11218,19 +11218,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>13.33</v>
+        <v>102.22</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T2" s="9" t="inlineStr">
         <is>
@@ -11239,12 +11239,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 144.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 19/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -11339,16 +11339,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3102110006</t>
+          <t>3102110001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG TIERRA ENRIQUECIDA 650L (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
+          <t>BIG BAG JABRE</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1M3</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
           <t>31</t>
@@ -11375,7 +11383,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -11384,7 +11392,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
@@ -11405,7 +11413,7 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 144.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 458.74€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
@@ -11422,24 +11430,16 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3201020001</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>12I18</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG MANTILLO 500L (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -11466,7 +11466,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
@@ -11513,16 +11513,24 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>3202030010</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG RECEBO CESPED 650L (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr"/>
-      <c r="D6" s="3" t="inlineStr"/>
+          <t>BIG BAG MARMOLINA BLANCA 500KG (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>12I18</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -11549,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -11558,19 +11566,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>102.22</v>
+        <v>13.33</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T6" s="9" t="inlineStr">
         <is>
@@ -11579,12 +11587,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 19/05/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -11679,17 +11687,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>3203050002</t>
+          <t>3203050005</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG CANTO RODADO BLANCO 500KG</t>
+          <t>BIG BAG GRAVA VOLCANICA MARRON 500L (NO VENTA)</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>20I40</t>
+          <t>5I10</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -11723,7 +11731,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -11732,16 +11740,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>55.56</v>
+        <v>13.33</v>
       </c>
       <c r="S8" s="5" t="n">
         <v>0</v>
@@ -11758,7 +11766,7 @@
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 11/04/2025</t>
+          <t>Compra 19/05/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -11770,24 +11778,16 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>3203050005</t>
+          <t>3202030010</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG GRAVA VOLCANICA MARRON 500L (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>5I10</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG RECEBO CESPED 650L (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -11814,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -11823,19 +11823,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>13.33</v>
+        <v>102.22</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T9" s="9" t="inlineStr">
         <is>
@@ -11844,12 +11844,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 19/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -11861,17 +11861,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3102110001</t>
+          <t>3203050002</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG JABRE</t>
+          <t>BIG BAG CANTO RODADO BLANCO 500KG</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>1M3</t>
+          <t>20I40</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -11881,12 +11881,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -11905,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -11914,19 +11914,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>102.22</v>
+        <v>55.56</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T10" s="9" t="inlineStr">
         <is>
@@ -11935,12 +11935,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 458.74€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 11/04/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P2_2025.xlsx
@@ -11167,16 +11167,24 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>3202030010</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG RECEBO CESPED 650L (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr"/>
-      <c r="D2" s="2" t="inlineStr"/>
+          <t>BIG BAG MARMOLINA BLANCA 500KG (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>12I18</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -11203,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>0</v>
@@ -11212,19 +11220,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>102.22</v>
+        <v>13.33</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
@@ -11233,12 +11241,12 @@
       </c>
       <c r="U2" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 19/05/2025</t>
         </is>
       </c>
       <c r="W2" s="3" t="inlineStr">
@@ -11341,24 +11349,16 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3201020001</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>12I18</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG MANTILLO 500L (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P4" s="3" t="n">
         <v>92</v>
@@ -11432,16 +11432,24 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>3201020001</t>
+          <t>3203050002</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG MANTILLO 500L (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
+          <t>BIG BAG CANTO RODADO BLANCO 500KG</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20I40</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -11468,7 +11476,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>0</v>
@@ -11477,16 +11485,16 @@
         <v>0</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P5" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>13.33</v>
+        <v>55.56</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0</v>
@@ -11503,7 +11511,7 @@
       </c>
       <c r="V5" s="3" t="inlineStr">
         <is>
-          <t>Compra 19/05/2025</t>
+          <t>Compra 11/04/2025</t>
         </is>
       </c>
       <c r="W5" s="3" t="inlineStr">
@@ -11515,24 +11523,16 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>3203050002</t>
+          <t>3202030010</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG CANTO RODADO BLANCO 500KG</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>20I40</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG RECEBO CESPED 650L (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="3" t="inlineStr">
         <is>
           <t>32</t>
@@ -11559,7 +11559,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="4" t="n">
         <v>0</v>
@@ -11568,19 +11568,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>55.56</v>
+        <v>102.22</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T6" s="8" t="inlineStr">
         <is>
@@ -11589,12 +11589,12 @@
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="3" t="inlineStr">
         <is>
-          <t>Compra 11/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W6" s="3" t="inlineStr">
@@ -11785,7 +11785,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG TIERRA ENRIQUECIDA 650L (NO VENTA)</t>
+          <t>BIG BAG TIERRA ENRIQUECIDA 500L (NO VENTA)</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M9" s="4" t="n">
         <v>0</v>
@@ -11825,19 +11825,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P9" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>102.22</v>
+        <v>13.33</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T9" s="8" t="inlineStr">
         <is>
@@ -11846,12 +11846,12 @@
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 144.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 19/05/2025</t>
         </is>
       </c>
       <c r="W9" s="3" t="inlineStr">
@@ -11868,7 +11868,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>BIG BAG TIERRA ENRIQUECIDA 500L (NO VENTA)</t>
+          <t>BIG BAG TIERRA ENRIQUECIDA 650L (NO VENTA)</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr"/>
@@ -11899,7 +11899,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M10" s="4" t="n">
         <v>0</v>
@@ -11908,19 +11908,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P10" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>13.33</v>
+        <v>102.22</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
@@ -11929,12 +11929,12 @@
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 144.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="3" t="inlineStr">
         <is>
-          <t>Compra 19/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W10" s="3" t="inlineStr">
